--- a/camorim_getx_app/lib/Python-Code-ML/assets/Cadastro de Equipamentos - Oilxplorer Marine.xlsx
+++ b/camorim_getx_app/lib/Python-Code-ML/assets/Cadastro de Equipamentos - Oilxplorer Marine.xlsx
@@ -1128,7 +1128,7 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -2944,7 +2944,7 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>

--- a/camorim_getx_app/lib/Python-Code-ML/assets/Cadastro de Equipamentos - Oilxplorer Marine.xlsx
+++ b/camorim_getx_app/lib/Python-Code-ML/assets/Cadastro de Equipamentos - Oilxplorer Marine.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Cadastro de Equipamentos - OilXplorer Marine</t>
   </si>
@@ -59,34 +59,6 @@
   </si>
   <si>
     <t>Periodicidade de coleta (dias)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">MCP BB </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <charset val="134"/>
-      </rPr>
-      <t>(EXAMPLE)</t>
-    </r>
-  </si>
-  <si>
-    <t>Mobil Delvac MX 15W-40</t>
-  </si>
-  <si>
-    <t>Caterpillar</t>
-  </si>
-  <si>
-    <t>CAT 3516</t>
   </si>
 </sst>
 </file>
@@ -141,6 +113,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="14"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -307,12 +285,6 @@
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="37">
@@ -533,7 +505,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -573,51 +545,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -635,9 +572,7 @@
     </border>
     <border>
       <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="medium">
         <color auto="1"/>
@@ -741,7 +676,18 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color auto="1"/>
@@ -935,153 +881,153 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1113,21 +1059,18 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -1135,127 +1078,112 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="6" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="6" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="7" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="7" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="7" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="7" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="3" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="13" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="7" borderId="22" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="6" fillId="6" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="7" borderId="20" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -1352,7 +1280,7 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>901465</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1376,7 +1304,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9095740" y="398145"/>
+          <a:off x="9704070" y="398145"/>
           <a:ext cx="2841625" cy="697230"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1431,7 +1359,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8315325" y="0"/>
+          <a:off x="8923655" y="0"/>
           <a:ext cx="1657350" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1510,7 +1438,7 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>2914650</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1589,7 +1517,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8315325" y="0"/>
+          <a:off x="8923655" y="0"/>
           <a:ext cx="1657350" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1679,7 +1607,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8315325" y="0"/>
+          <a:off x="8923655" y="0"/>
           <a:ext cx="1657350" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1769,7 +1697,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8315325" y="0"/>
+          <a:off x="8923655" y="0"/>
           <a:ext cx="1657350" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1859,7 +1787,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8315325" y="0"/>
+          <a:off x="8923655" y="0"/>
           <a:ext cx="1657350" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1949,7 +1877,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8315325" y="0"/>
+          <a:off x="8923655" y="0"/>
           <a:ext cx="1657350" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2039,7 +1967,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8315325" y="0"/>
+          <a:off x="8923655" y="0"/>
           <a:ext cx="1657350" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2129,7 +2057,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8315325" y="0"/>
+          <a:off x="8923655" y="0"/>
           <a:ext cx="1657350" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2219,7 +2147,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8315325" y="0"/>
+          <a:off x="8923655" y="0"/>
           <a:ext cx="1657350" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2309,7 +2237,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8315325" y="0"/>
+          <a:off x="8923655" y="0"/>
           <a:ext cx="1657350" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2399,7 +2327,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8315325" y="0"/>
+          <a:off x="8923655" y="0"/>
           <a:ext cx="1657350" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2489,7 +2417,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8315325" y="0"/>
+          <a:off x="8923655" y="0"/>
           <a:ext cx="1657350" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2579,7 +2507,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8315325" y="0"/>
+          <a:off x="8923655" y="0"/>
           <a:ext cx="1657350" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2944,7 +2872,7 @@
     <sheetView showGridLines="0" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2952,7 +2880,7 @@
     <col min="1" max="1" width="6.70833333333333" style="2" customWidth="1"/>
     <col min="2" max="2" width="43.7083333333333" style="2" customWidth="1"/>
     <col min="3" max="3" width="28.5666666666667" style="2" customWidth="1"/>
-    <col min="4" max="4" width="30.1416666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="38.125" style="2" customWidth="1"/>
     <col min="5" max="5" width="26.425" style="2" customWidth="1"/>
     <col min="6" max="6" width="9.28333333333333" style="2" customWidth="1"/>
     <col min="7" max="7" width="36" style="2" customWidth="1"/>
@@ -3597,322 +3525,310 @@
         <v>0</v>
       </c>
       <c r="D1" s="8"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="35"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31"/>
     </row>
-    <row r="2" ht="18.75" spans="1:7">
+    <row r="2" ht="18" spans="1:7">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
       <c r="C2" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="36"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="38"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="34"/>
     </row>
-    <row r="3" ht="18.75" spans="1:7">
+    <row r="3" ht="18" spans="1:7">
       <c r="A3" s="9"/>
       <c r="B3" s="10"/>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="34"/>
     </row>
-    <row r="4" ht="18.75" spans="1:7">
+    <row r="4" ht="18" spans="1:7">
       <c r="A4" s="9"/>
-      <c r="B4" s="15"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="14"/>
+      <c r="C4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="34"/>
     </row>
-    <row r="5" ht="18.75" spans="1:7">
+    <row r="5" ht="18" spans="1:7">
       <c r="A5" s="9"/>
       <c r="B5" s="10"/>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="38"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="34"/>
     </row>
     <row r="6" ht="18.75" spans="1:7">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="20" t="s">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="41"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="36"/>
     </row>
     <row r="7" s="1" customFormat="1" ht="18.75" spans="1:8">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="23" t="s">
+      <c r="D7" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="42" t="s">
+      <c r="E7" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="43" t="s">
+      <c r="F7" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="44" t="s">
+      <c r="G7" s="39" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="3"/>
     </row>
     <row r="8" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:7">
-      <c r="A8" s="24">
+      <c r="A8" s="20">
         <v>1</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="21"/>
+      <c r="C8" s="22"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="42"/>
+    </row>
+    <row r="9" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:7">
+      <c r="A9" s="23">
+        <v>2</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="43"/>
+      <c r="F9" s="43"/>
+      <c r="G9" s="44"/>
+    </row>
+    <row r="10" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:7">
+      <c r="A10" s="20">
+        <v>3</v>
+      </c>
+      <c r="B10" s="21"/>
+      <c r="C10" s="22"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="42"/>
+    </row>
+    <row r="11" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:7">
+      <c r="A11" s="23">
+        <v>4</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="43"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="44"/>
+    </row>
+    <row r="12" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:7">
+      <c r="A12" s="20">
+        <v>5</v>
+      </c>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="42"/>
+    </row>
+    <row r="13" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:7">
+      <c r="A13" s="23">
+        <v>6</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="25"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="44"/>
+    </row>
+    <row r="14" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:7">
+      <c r="A14" s="20">
+        <v>7</v>
+      </c>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="42"/>
+    </row>
+    <row r="15" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:7">
+      <c r="A15" s="23">
+        <v>8</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="25"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="44"/>
+    </row>
+    <row r="16" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:7">
+      <c r="A16" s="20">
+        <v>9</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="42"/>
+    </row>
+    <row r="17" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:7">
+      <c r="A17" s="23">
+        <v>10</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="44"/>
+    </row>
+    <row r="18" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:7">
+      <c r="A18" s="20">
+        <v>11</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="42"/>
+    </row>
+    <row r="19" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:7">
+      <c r="A19" s="23">
+        <v>12</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="44"/>
+    </row>
+    <row r="20" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:7">
+      <c r="A20" s="20">
+        <v>13</v>
+      </c>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="42"/>
+    </row>
+    <row r="21" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:7">
+      <c r="A21" s="23">
         <v>14</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="B21" s="24"/>
+      <c r="C21" s="25"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="44"/>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:7">
+      <c r="A22" s="20">
         <v>15</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="45"/>
+      <c r="G22" s="42"/>
+    </row>
+    <row r="23" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:7">
+      <c r="A23" s="23">
         <v>16</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="B23" s="24"/>
+      <c r="C23" s="25"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="44"/>
+    </row>
+    <row r="24" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:7">
+      <c r="A24" s="20">
         <v>17</v>
       </c>
-      <c r="F8" s="46">
-        <v>800</v>
-      </c>
-      <c r="G8" s="47">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:7">
-      <c r="A9" s="27">
-        <v>2</v>
-      </c>
-      <c r="B9" s="28"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="49"/>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:7">
-      <c r="A10" s="24">
-        <v>3</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="47"/>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:7">
-      <c r="A11" s="27">
-        <v>4</v>
-      </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="49"/>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:7">
-      <c r="A12" s="24">
-        <v>5</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="50"/>
-      <c r="G12" s="47"/>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:7">
-      <c r="A13" s="27">
-        <v>6</v>
-      </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="49"/>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:7">
-      <c r="A14" s="24">
-        <v>7</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="47"/>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:7">
-      <c r="A15" s="27">
-        <v>8</v>
-      </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="49"/>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:7">
-      <c r="A16" s="24">
-        <v>9</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="47"/>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:7">
-      <c r="A17" s="27">
-        <v>10</v>
-      </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="48"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="49"/>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:7">
-      <c r="A18" s="24">
-        <v>11</v>
-      </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="47"/>
-    </row>
-    <row r="19" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:7">
-      <c r="A19" s="27">
-        <v>12</v>
-      </c>
-      <c r="B19" s="28"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="49"/>
-    </row>
-    <row r="20" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:7">
-      <c r="A20" s="24">
-        <v>13</v>
-      </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="47"/>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:7">
-      <c r="A21" s="27">
-        <v>14</v>
-      </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="49"/>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:7">
-      <c r="A22" s="24">
-        <v>15</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="50"/>
-      <c r="G22" s="47"/>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:7">
-      <c r="A23" s="27">
-        <v>16</v>
-      </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="49"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:7">
-      <c r="A24" s="24">
-        <v>17</v>
-      </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="50"/>
-      <c r="G24" s="47"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="42"/>
     </row>
     <row r="25" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:7">
-      <c r="A25" s="27">
+      <c r="A25" s="23">
         <v>18</v>
       </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="49"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="46"/>
+      <c r="G25" s="44"/>
     </row>
     <row r="26" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:7">
-      <c r="A26" s="24">
+      <c r="A26" s="20">
         <v>19</v>
       </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="45"/>
-      <c r="F26" s="50"/>
-      <c r="G26" s="47"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="42"/>
     </row>
     <row r="27" s="1" customFormat="1" ht="23.25" customHeight="1" spans="1:7">
-      <c r="A27" s="30">
+      <c r="A27" s="26">
         <v>20</v>
       </c>
-      <c r="B27" s="31"/>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="52"/>
-      <c r="F27" s="53"/>
-      <c r="G27" s="54"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="5">
